--- a/data/trans_bre/P25_8-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P25_8-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -523,6 +523,8 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -539,13 +541,15 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -567,17 +571,27 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -590,6 +604,8 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -604,32 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-4,07</t>
+          <t>-11,31</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>4,11</t>
+          <t>6,29</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>11,21</t>
+          <t>4,31</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-18,93%</t>
+          <t>4,39</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>24,48%</t>
+          <t>-40,72%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>63,81%</t>
+          <t>33,82%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>27,52%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>20,03%</t>
         </is>
       </c>
     </row>
@@ -642,32 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-19,09; 9,03</t>
+          <t>-31,82; 7,29</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-10,31; 17,33</t>
+          <t>-12,36; 23,77</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-6,22; 28,53</t>
+          <t>-15,07; 21,11</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-60,57; 73,25</t>
+          <t>-17,32; 23,33</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-43,16; 191,64</t>
+          <t>-78,57; 60,33</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-29,47; 270,06</t>
+          <t>-44,15; 303,34</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>-60,78; 446,81</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>-51,73; 230,06</t>
         </is>
       </c>
     </row>
@@ -684,32 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>12,88</t>
+          <t>11,28</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>7,73</t>
+          <t>3,77</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>9,35</t>
+          <t>6,59</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>70,68%</t>
+          <t>13,86</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>59,03%</t>
+          <t>60,52%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>50,2%</t>
+          <t>23,56%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>33,79%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>65,79%</t>
         </is>
       </c>
     </row>
@@ -722,32 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-1,73; 28,6</t>
+          <t>-6,27; 29,26</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-4,08; 19,5</t>
+          <t>-13,14; 17,74</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-3,98; 24,51</t>
+          <t>-12,66; 24,46</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-10,3; 243,86</t>
+          <t>-8,6; 34,35</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-27,39; 267,42</t>
+          <t>-27,21; 305,22</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-17,44; 219,61</t>
+          <t>-50,11; 237,03</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>-43,99; 206,74</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>-24,99; 297,74</t>
         </is>
       </c>
     </row>
@@ -764,32 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>9,64</t>
+          <t>15,4</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-2,24</t>
+          <t>3,71</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-3,12</t>
+          <t>6,49</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>71,78%</t>
+          <t>5,02</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-10,91%</t>
+          <t>123,02%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-11,88%</t>
+          <t>22,95%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>36,27%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>21,17%</t>
         </is>
       </c>
     </row>
@@ -802,32 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,03; 19,94</t>
+          <t>2,39; 26,91</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-17,17; 8,16</t>
+          <t>-10,37; 14,47</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-22,64; 8,2</t>
+          <t>-5,9; 20,29</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1,45; 213,83</t>
+          <t>-10,16; 21,03</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-58,68; 57,87</t>
+          <t>0,98; 446,51</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-57,92; 42,54</t>
+          <t>-41,49; 160,7</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-27,6; 200,05</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-33,53; 144,74</t>
         </is>
       </c>
     </row>
@@ -844,32 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>1,25</t>
+          <t>-3,48</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-2,44</t>
+          <t>-9,91</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>4,94</t>
+          <t>7,63</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>4,67%</t>
+          <t>1,76</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-10,9%</t>
+          <t>-11,23%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>24,62%</t>
+          <t>-37,46%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>41,97%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>8,23%</t>
         </is>
       </c>
     </row>
@@ -882,32 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-8,92; 11,7</t>
+          <t>-17,88; 8,4</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-11,32; 7,43</t>
+          <t>-22,27; 1,5</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-4,33; 13,75</t>
+          <t>-4,94; 19,75</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-28,18; 58,79</t>
+          <t>-10,02; 15,59</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-41,93; 48,16</t>
+          <t>-46,34; 35,55</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-17,43; 91,46</t>
+          <t>-66,02; 8,01</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>-20,62; 175,91</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>-37,89; 108,46</t>
         </is>
       </c>
     </row>
@@ -924,32 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>7,01</t>
+          <t>5,49</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>9,92</t>
+          <t>9,76</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>5,56</t>
+          <t>-0,99</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>46,0%</t>
+          <t>16,68</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>101,47%</t>
+          <t>31,98%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>29,92%</t>
+          <t>138,68%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>-4,13%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>123,74%</t>
         </is>
       </c>
     </row>
@@ -962,32 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-7,4; 18,36</t>
+          <t>-16,89; 20,66</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>1,24; 19,23</t>
+          <t>-0,87; 22,65</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-6,97; 17,11</t>
+          <t>-19,92; 15,94</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-38,44; 208,96</t>
+          <t>-4,26; 32,0</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>4,77; 317,86</t>
+          <t>-69,54; 238,55</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-33,15; 134,93</t>
+          <t>-23,28; 777,76</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-61,67; 98,99</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-43,66; 444,94</t>
         </is>
       </c>
     </row>
@@ -1004,32 +1120,42 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,82</t>
+          <t>-5,91</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>2,58</t>
+          <t>7,65</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>18,55</t>
+          <t>6,62</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>3,88%</t>
+          <t>9,97</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>24,04%</t>
+          <t>-18,58%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>114,61%</t>
+          <t>57,59%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>43,73%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>60,21%</t>
         </is>
       </c>
     </row>
@@ -1042,32 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-12,4; 13,47</t>
+          <t>-26,87; 12,78</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-6,87; 12,11</t>
+          <t>-7,97; 24,72</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,07; 49,14</t>
+          <t>-11,02; 23,99</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-42,93; 95,61</t>
+          <t>-7,46; 28,11</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-42,5; 254,16</t>
+          <t>-60,94; 65,16</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-3,66; 507,37</t>
+          <t>-44,44; 407,28</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>-51,07; 358,94</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>-34,7; 307,14</t>
         </is>
       </c>
     </row>
@@ -1084,32 +1220,42 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>5,25</t>
+          <t>3,29</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>2,62</t>
+          <t>2,89</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>7,25</t>
+          <t>5,26</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>27,38%</t>
+          <t>8,06</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>16,2%</t>
+          <t>14,58%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>36,39%</t>
+          <t>17,28%</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>28,41%</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>40,29%</t>
         </is>
       </c>
     </row>
@@ -1122,44 +1268,61 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-0,29; 10,1</t>
+          <t>-3,78; 9,87</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-2,65; 6,87</t>
+          <t>-2,83; 8,85</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,92; 14,59</t>
+          <t>-1,44; 11,26</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-1,26; 61,14</t>
+          <t>0,63; 15,19</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-14,09; 50,35</t>
+          <t>-14,06; 51,92</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>3,34; 88,38</t>
+          <t>-14,26; 64,71</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>-6,55; 77,08</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>1,79; 94,48</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
     <mergeCell ref="A16:A17"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A14:A15"/>

--- a/data/trans_bre/P25_8-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P25_8-Edad-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -618,299 +627,199 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>-11,31</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>6,29</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>4,31</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>4,39</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>-40,72%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>33,82%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>27,52%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>20,03%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>-11.10090726368037</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>6.148235880363462</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>6.475732338135054</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>4.616017426412316</v>
+      </c>
+      <c r="G4" s="6" t="n">
+        <v>-0.3981168906810456</v>
+      </c>
+      <c r="H4" s="6" t="n">
+        <v>0.3085285024644608</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>0.4834744380495349</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>0.2124467590117391</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-31,82; 7,29</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-12,36; 23,77</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-15,07; 21,11</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-17,32; 23,33</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>-78,57; 60,33</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>-44,15; 303,34</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>-60,78; 446,81</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>-51,73; 230,06</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-31.59690891405732</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-14.88299373793293</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-11.02751378923525</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-17.31109731037841</v>
+      </c>
+      <c r="G5" s="6" t="n">
+        <v>-0.7832547529336034</v>
+      </c>
+      <c r="H5" s="6" t="n">
+        <v>-0.5160047426054386</v>
+      </c>
+      <c r="I5" s="6" t="n">
+        <v>-0.5441620745482324</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>-0.5135785458797083</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>7.825690869636266</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>24.64934411576809</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>23.33859709487767</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>23.04326209490308</v>
+      </c>
+      <c r="G6" s="6" t="n">
+        <v>0.6108491713330368</v>
+      </c>
+      <c r="H6" s="6" t="n">
+        <v>2.89735425362398</v>
+      </c>
+      <c r="I6" s="6" t="n">
+        <v>5.932206362797512</v>
+      </c>
+      <c r="J6" s="6" t="n">
+        <v>2.157421980299755</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>25-34</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>11,28</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>3,77</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>6,59</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>13,86</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>60,52%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>23,56%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>33,79%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>65,79%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-6,27; 29,26</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-13,14; 17,74</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-12,66; 24,46</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-8,6; 34,35</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>-27,21; 305,22</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-50,11; 237,03</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>-43,99; 206,74</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>-24,99; 297,74</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>6.437793352635987</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>4.713916796248066</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>7.285102611344735</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>17.39618976461976</v>
+      </c>
+      <c r="G7" s="6" t="n">
+        <v>0.2757314504804843</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>0.3066759963944455</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>0.3903253647299137</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>0.9286700354030505</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>35-44</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>15,4</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>3,71</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>6,49</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>5,02</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>123,02%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>22,95%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>36,27%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>21,17%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-18.51627044483651</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-10.83257056964123</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-11.76716524787961</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-4.107072830777656</v>
+      </c>
+      <c r="G8" s="6" t="n">
+        <v>-0.5133001496492859</v>
+      </c>
+      <c r="H8" s="6" t="n">
+        <v>-0.4750838081447641</v>
+      </c>
+      <c r="I8" s="6" t="n">
+        <v>-0.4168537464787744</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>-0.165929023482482</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>2,39; 26,91</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-10,37; 14,47</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-5,9; 20,29</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-10,16; 21,03</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>0,98; 446,51</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>-41,49; 160,7</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>-27,6; 200,05</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>-33,53; 144,74</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>24.94392880451305</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>18.67005935644653</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>23.4810614860336</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>37.73125106631628</v>
+      </c>
+      <c r="G9" s="6" t="n">
+        <v>1.968842440484067</v>
+      </c>
+      <c r="H9" s="6" t="n">
+        <v>2.503079984424508</v>
+      </c>
+      <c r="I9" s="6" t="n">
+        <v>2.137225447283882</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>3.769365733806276</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45-54</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -918,299 +827,199 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>-3,48</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>-9,91</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>7,63</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>1,76</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>-11,23%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>-37,46%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>41,97%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>8,23%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>16.85754448601317</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>1.998480312214648</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>6.072102058406833</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>4.843440558521825</v>
+      </c>
+      <c r="G10" s="6" t="n">
+        <v>1.497949791015823</v>
+      </c>
+      <c r="H10" s="6" t="n">
+        <v>0.11199410383081</v>
+      </c>
+      <c r="I10" s="6" t="n">
+        <v>0.3251489577917799</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>0.200558742399253</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-17,88; 8,4</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-22,27; 1,5</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-4,94; 19,75</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>-10,02; 15,59</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>-46,34; 35,55</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>-66,02; 8,01</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>-20,62; 175,91</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>-37,89; 108,46</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>3.960176954968925</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-13.22754017224257</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-7.822075119156971</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-9.927323969029434</v>
+      </c>
+      <c r="G11" s="6" t="n">
+        <v>0.1162011482084096</v>
+      </c>
+      <c r="H11" s="6" t="n">
+        <v>-0.4709060506072649</v>
+      </c>
+      <c r="I11" s="6" t="n">
+        <v>-0.3011440523876376</v>
+      </c>
+      <c r="J11" s="6" t="n">
+        <v>-0.3359512383268886</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>55-64</t>
-        </is>
-      </c>
+      <c r="A12" s="1" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>28.49681002914167</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>13.40284561456199</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>19.88833753301538</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>21.2538247121704</v>
+      </c>
+      <c r="G12" s="6" t="n">
+        <v>5.065774929749007</v>
+      </c>
+      <c r="H12" s="6" t="n">
+        <v>1.419333869334673</v>
+      </c>
+      <c r="I12" s="6" t="n">
+        <v>2.003772070684392</v>
+      </c>
+      <c r="J12" s="6" t="n">
+        <v>1.381888072500681</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>5,49</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>9,76</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>-0,99</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>16,68</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>31,98%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>138,68%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>-4,13%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>123,74%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-16,89; 20,66</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-0,87; 22,65</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-19,92; 15,94</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>-4,26; 32,0</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>-69,54; 238,55</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>-23,28; 777,76</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>-61,67; 98,99</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>-43,66; 444,94</t>
-        </is>
+      <c r="C13" s="5" t="n">
+        <v>-2.930965634839811</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>-11.9236494631131</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>6.802646777052431</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>1.014641553346682</v>
+      </c>
+      <c r="G13" s="6" t="n">
+        <v>-0.09664308214227135</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>-0.4257273123764387</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>0.3587338111697688</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>0.04691375156137515</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>65 Y MAS</t>
-        </is>
-      </c>
+      <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>-5,91</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>7,65</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>6,62</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>9,97</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>-18,58%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>57,59%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>43,73%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>60,21%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-18.07216675884964</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-25.6016251010604</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-6.404334059623228</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-11.11277587369756</v>
+      </c>
+      <c r="G14" s="6" t="n">
+        <v>-0.4748953654149364</v>
+      </c>
+      <c r="H14" s="6" t="n">
+        <v>-0.6961337106493631</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <v>-0.2549881524320486</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>-0.3992367420074779</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>-26,87; 12,78</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>-7,97; 24,72</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>-11,02; 23,99</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>-7,46; 28,11</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>-60,94; 65,16</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>-44,44; 407,28</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>-51,07; 358,94</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>-34,7; 307,14</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>8.813042390411431</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>-0.03906775003578161</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>19.28149349526841</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>14.76996056304949</v>
+      </c>
+      <c r="G15" s="6" t="n">
+        <v>0.3883832292951646</v>
+      </c>
+      <c r="H15" s="6" t="n">
+        <v>0.005060422308522181</v>
+      </c>
+      <c r="I15" s="6" t="n">
+        <v>1.526271506665737</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>1.071562574748637</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1218,97 +1027,297 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>3,29</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>2,89</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>5,26</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>8,06</t>
-        </is>
-      </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>14,58%</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>17,28%</t>
-        </is>
-      </c>
-      <c r="I16" s="2" t="inlineStr">
-        <is>
-          <t>28,41%</t>
-        </is>
-      </c>
-      <c r="J16" s="2" t="inlineStr">
-        <is>
-          <t>40,29%</t>
-        </is>
+      <c r="C16" s="5" t="n">
+        <v>5.873197747095054</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>9.2195349184194</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>-0.8566867399695643</v>
+      </c>
+      <c r="F16" s="5" t="n">
+        <v>15.96014493039235</v>
+      </c>
+      <c r="G16" s="6" t="n">
+        <v>0.3360710293560644</v>
+      </c>
+      <c r="H16" s="6" t="n">
+        <v>1.20427125526372</v>
+      </c>
+      <c r="I16" s="6" t="n">
+        <v>-0.03394195891353597</v>
+      </c>
+      <c r="J16" s="6" t="n">
+        <v>1.148049206415949</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t>-3,78; 9,87</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>-2,83; 8,85</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>-1,44; 11,26</t>
-        </is>
-      </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>0,63; 15,19</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
-        <is>
-          <t>-14,06; 51,92</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="inlineStr">
-        <is>
-          <t>-14,26; 64,71</t>
-        </is>
-      </c>
-      <c r="I17" s="2" t="inlineStr">
-        <is>
-          <t>-6,55; 77,08</t>
-        </is>
-      </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>1,79; 94,48</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C17" s="5" t="n">
+        <v>-17.7666213467468</v>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>-1.749302934061526</v>
+      </c>
+      <c r="E17" s="5" t="n">
+        <v>-20.48116570303442</v>
+      </c>
+      <c r="F17" s="5" t="n">
+        <v>-6.106098662309308</v>
+      </c>
+      <c r="G17" s="6" t="n">
+        <v>-0.6977764407405129</v>
+      </c>
+      <c r="H17" s="6" t="n">
+        <v>-0.2939890784868002</v>
+      </c>
+      <c r="I17" s="6" t="n">
+        <v>-0.6087549145594859</v>
+      </c>
+      <c r="J17" s="6" t="n">
+        <v>-0.4783923936177728</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="n">
+        <v>21.47895000813001</v>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>21.73300558207492</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>17.05558880862212</v>
+      </c>
+      <c r="F18" s="5" t="n">
+        <v>31.17077686715007</v>
+      </c>
+      <c r="G18" s="6" t="n">
+        <v>2.447935839721551</v>
+      </c>
+      <c r="H18" s="6" t="n">
+        <v>6.619652292102383</v>
+      </c>
+      <c r="I18" s="6" t="n">
+        <v>1.010841580330132</v>
+      </c>
+      <c r="J18" s="6" t="n">
+        <v>4.346288861171112</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C19" s="5" t="n">
+        <v>-4.475630821626197</v>
+      </c>
+      <c r="D19" s="5" t="n">
+        <v>6.399764782184972</v>
+      </c>
+      <c r="E19" s="5" t="n">
+        <v>6.597119849077735</v>
+      </c>
+      <c r="F19" s="5" t="n">
+        <v>7.450848508918178</v>
+      </c>
+      <c r="G19" s="6" t="n">
+        <v>-0.1503252380888712</v>
+      </c>
+      <c r="H19" s="6" t="n">
+        <v>0.4716920601701129</v>
+      </c>
+      <c r="I19" s="6" t="n">
+        <v>0.4463589306624673</v>
+      </c>
+      <c r="J19" s="6" t="n">
+        <v>0.4478523853763289</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="n">
+        <v>-25.46073323385778</v>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>-9.595259740056903</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>-11.196651556747</v>
+      </c>
+      <c r="F20" s="5" t="n">
+        <v>-9.613043986841427</v>
+      </c>
+      <c r="G20" s="6" t="n">
+        <v>-0.5996306089362896</v>
+      </c>
+      <c r="H20" s="6" t="n">
+        <v>-0.5010082516401406</v>
+      </c>
+      <c r="I20" s="6" t="n">
+        <v>-0.5128867295002503</v>
+      </c>
+      <c r="J20" s="6" t="n">
+        <v>-0.411436176780361</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C21" s="5" t="n">
+        <v>14.7595818633598</v>
+      </c>
+      <c r="D21" s="5" t="n">
+        <v>22.75038141796373</v>
+      </c>
+      <c r="E21" s="5" t="n">
+        <v>24.03364390879927</v>
+      </c>
+      <c r="F21" s="5" t="n">
+        <v>24.45739806249873</v>
+      </c>
+      <c r="G21" s="6" t="n">
+        <v>0.8165074705843623</v>
+      </c>
+      <c r="H21" s="6" t="n">
+        <v>3.686262869198843</v>
+      </c>
+      <c r="I21" s="6" t="n">
+        <v>3.612468365965841</v>
+      </c>
+      <c r="J21" s="6" t="n">
+        <v>2.668945169305736</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="n">
+        <v>3.007955720901734</v>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>1.959192382018257</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>5.453943335194511</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>8.026113353239451</v>
+      </c>
+      <c r="G22" s="6" t="n">
+        <v>0.1317442970054054</v>
+      </c>
+      <c r="H22" s="6" t="n">
+        <v>0.1108100417313148</v>
+      </c>
+      <c r="I22" s="6" t="n">
+        <v>0.2952569046200018</v>
+      </c>
+      <c r="J22" s="6" t="n">
+        <v>0.4069274037583215</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="n">
+        <v>-4.992278717641311</v>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>-4.247088312402345</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>-0.9871473908177583</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>0.703049843372997</v>
+      </c>
+      <c r="G23" s="6" t="n">
+        <v>-0.180046408946101</v>
+      </c>
+      <c r="H23" s="6" t="n">
+        <v>-0.2058680629986205</v>
+      </c>
+      <c r="I23" s="6" t="n">
+        <v>-0.04408745340185699</v>
+      </c>
+      <c r="J23" s="6" t="n">
+        <v>0.02588108767813114</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="n">
+        <v>9.795373397849305</v>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>8.089497493325736</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>11.49022776949232</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>15.17516197720099</v>
+      </c>
+      <c r="G24" s="6" t="n">
+        <v>0.5135456617647567</v>
+      </c>
+      <c r="H24" s="6" t="n">
+        <v>0.5436856351808074</v>
+      </c>
+      <c r="I24" s="6" t="n">
+        <v>0.794844804353241</v>
+      </c>
+      <c r="J24" s="6" t="n">
+        <v>0.9294956663494756</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
@@ -1316,16 +1325,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
